--- a/Test Data/FC_Gallery_Ethernet_FC600_FC700_Series_Panels.xlsx
+++ b/Test Data/FC_Gallery_Ethernet_FC600_FC700_Series_Panels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83103D05-6084-4DEC-9AA8-721AD9ED6EA5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADDFD72-D81C-4DDA-B7C3-859072ADE5B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>

--- a/Test Data/FC_Gallery_Ethernet_FC600_FC700_Series_Panels.xlsx
+++ b/Test Data/FC_Gallery_Ethernet_FC600_FC700_Series_Panels.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADDFD72-D81C-4DDA-B7C3-859072ADE5B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393659D2-09B5-4F12-BD33-315BDF6494BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="7" r:id="rId1"/>
     <sheet name="Belgium" sheetId="8" r:id="rId2"/>
+    <sheet name="Denmark" sheetId="9" r:id="rId3"/>
+    <sheet name="Sweden" sheetId="10" r:id="rId4"/>
+    <sheet name="Norway" sheetId="11" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="22">
   <si>
     <t>Wg</t>
   </si>
@@ -82,6 +85,24 @@
   </si>
   <si>
     <t>NGC-3463/T1197/T1215</t>
+  </si>
+  <si>
+    <t>Denmark Market</t>
+  </si>
+  <si>
+    <t>NGC-3446/T2009</t>
+  </si>
+  <si>
+    <t>Sweden Market</t>
+  </si>
+  <si>
+    <t>NGC-3465/T2021</t>
+  </si>
+  <si>
+    <t>Norway Market</t>
+  </si>
+  <si>
+    <t>NGC-3464/T1924</t>
   </si>
 </sst>
 </file>
@@ -505,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA0CE43-C2A8-4DC2-8C6C-856D70AB4DD1}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -703,4 +724,310 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A03163-6181-44EF-9366-8817F1CB9DB8}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26241394-DED0-4F80-B57F-28440D432DF6}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E3DCA68-0CD8-46A7-B74E-AAA3C638A5D6}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/FC_Gallery_Ethernet_FC600_FC700_Series_Panels.xlsx
+++ b/Test Data/FC_Gallery_Ethernet_FC600_FC700_Series_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393659D2-09B5-4F12-BD33-315BDF6494BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4FCAD1D-2292-4919-9FF9-8AD3F76085C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="7" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="Denmark" sheetId="9" r:id="rId3"/>
     <sheet name="Sweden" sheetId="10" r:id="rId4"/>
     <sheet name="Norway" sheetId="11" r:id="rId5"/>
+    <sheet name="Italy" sheetId="13" r:id="rId6"/>
+    <sheet name="Spain" sheetId="12" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="26">
   <si>
     <t>Wg</t>
   </si>
@@ -103,6 +105,18 @@
   </si>
   <si>
     <t>NGC-3464/T1924</t>
+  </si>
+  <si>
+    <t>Spain Market</t>
+  </si>
+  <si>
+    <t>NGC-3442/T2125</t>
+  </si>
+  <si>
+    <t>Italy Market</t>
+  </si>
+  <si>
+    <t>NGC-3443/T1972</t>
   </si>
 </sst>
 </file>
@@ -934,7 +948,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E3DCA68-0CD8-46A7-B74E-AAA3C638A5D6}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
@@ -1030,4 +1044,208 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96ED540F-073A-4198-BF18-12A4113134FE}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2E28F46-719B-48E0-A2A8-8D7E4CCAE0F6}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/FC_Gallery_Ethernet_FC600_FC700_Series_Panels.xlsx
+++ b/Test Data/FC_Gallery_Ethernet_FC600_FC700_Series_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4FCAD1D-2292-4919-9FF9-8AD3F76085C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFC1677-E5BE-46A6-A6C0-B19F850D7F9D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="7" r:id="rId1"/>
@@ -20,6 +20,8 @@
     <sheet name="Norway" sheetId="11" r:id="rId5"/>
     <sheet name="Italy" sheetId="13" r:id="rId6"/>
     <sheet name="Spain" sheetId="12" r:id="rId7"/>
+    <sheet name="Romania" sheetId="14" r:id="rId8"/>
+    <sheet name="Slovakia" sheetId="15" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="30">
   <si>
     <t>Wg</t>
   </si>
@@ -117,6 +119,18 @@
   </si>
   <si>
     <t>NGC-3443/T1972</t>
+  </si>
+  <si>
+    <t>Romania Market</t>
+  </si>
+  <si>
+    <t>NGC-4307/T3533/T3549</t>
+  </si>
+  <si>
+    <t>NGC-4306/T3556/T3566</t>
+  </si>
+  <si>
+    <t>Slovakia Market</t>
   </si>
 </sst>
 </file>
@@ -643,7 +657,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1050,7 +1064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96ED540F-073A-4198-BF18-12A4113134FE}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -1248,4 +1262,208 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02D4E4E5-6BAA-4BBF-8E84-EB30A5080451}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EF21CE2-8A87-4324-9176-AD88EF5F160E}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/FC_Gallery_Ethernet_FC600_FC700_Series_Panels.xlsx
+++ b/Test Data/FC_Gallery_Ethernet_FC600_FC700_Series_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFC1677-E5BE-46A6-A6C0-B19F850D7F9D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3DEF9BA-AC21-4001-909B-4F548F2F2C77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="7" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Spain" sheetId="12" r:id="rId7"/>
     <sheet name="Romania" sheetId="14" r:id="rId8"/>
     <sheet name="Slovakia" sheetId="15" r:id="rId9"/>
+    <sheet name="Hungary" sheetId="16" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="32">
   <si>
     <t>Wg</t>
   </si>
@@ -131,6 +132,12 @@
   </si>
   <si>
     <t>Slovakia Market</t>
+  </si>
+  <si>
+    <t>Hungary Market</t>
+  </si>
+  <si>
+    <t>NGC-4308/T3590/T3615</t>
   </si>
 </sst>
 </file>
@@ -652,6 +659,108 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CCC98E8-A3B3-4C08-9FE2-A1C316506A1F}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE99313-E25B-46AF-9427-E0EA81FBAA22}">
   <dimension ref="A1:D11"/>
@@ -1370,8 +1479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EF21CE2-8A87-4324-9176-AD88EF5F160E}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Test Data/FC_Gallery_Ethernet_FC600_FC700_Series_Panels.xlsx
+++ b/Test Data/FC_Gallery_Ethernet_FC600_FC700_Series_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3DEF9BA-AC21-4001-909B-4F548F2F2C77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F54809-17BD-4F12-92E0-8EAB2D66577A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="7" r:id="rId1"/>
@@ -89,9 +89,6 @@
     <t>UK and Turkey Market</t>
   </si>
   <si>
-    <t>NGC-3463/T1197/T1215</t>
-  </si>
-  <si>
     <t>Denmark Market</t>
   </si>
   <si>
@@ -138,6 +135,9 @@
   </si>
   <si>
     <t>NGC-4308/T3590/T3615</t>
+  </si>
+  <si>
+    <t>NGC-3003 and NGC-3463/T1197/T1215/T3830</t>
   </si>
 </sst>
 </file>
@@ -561,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA0CE43-C2A8-4DC2-8C6C-856D70AB4DD1}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -608,7 +608,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -663,7 +663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CCC98E8-A3B3-4C08-9FE2-A1C316506A1F}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
@@ -688,7 +688,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -710,7 +710,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -892,7 +892,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -914,7 +914,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -994,7 +994,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -1016,7 +1016,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -1096,7 +1096,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -1118,7 +1118,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -1198,7 +1198,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -1220,7 +1220,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -1300,7 +1300,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -1322,7 +1322,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -1402,7 +1402,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -1424,7 +1424,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -1504,7 +1504,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -1526,7 +1526,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
